--- a/matrix/executed/app/iPhone/login_ui_design_execute.xlsx
+++ b/matrix/executed/app/iPhone/login_ui_design_execute.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A6476-C9DA-40FF-9738-DF18A2A82AD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF019F54-69D2-4126-9A10-AC13E346004C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login_ui_design" sheetId="1" r:id="rId1"/>
+    <sheet name="signup_password" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>T0026</t>
-  </si>
-  <si>
-    <t>T0027</t>
   </si>
 </sst>
 </file>
@@ -338,6 +335,73 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAB2ADD-0CEA-4523-A909-18F359E1BD44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>0</xdr:row>
@@ -351,13 +415,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46C34CF-F682-4CB6-BDB5-8ACB9BE02961}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B53D33-4FE9-4BF4-91BE-F8F882DA358F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -418,13 +482,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
+                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53562EE7-8DE8-46E1-AE3B-2AB7740BA73A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EC058A-D1C9-46FA-B330-93547E256B16}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -485,13 +549,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678B42DA-3FF3-4A2A-AD93-FAC126704AB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1F94A0-45EC-4F4A-98B1-86C18EA44D5E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -552,13 +616,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C901E26-841A-4E42-BD2A-AC6EB5E0191F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3592A0E-692E-45F4-95C3-985666D17D71}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -619,13 +683,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30198843-1F55-4F72-8D33-D2B215988039}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543C9BF8-7208-4508-B395-74F87BCE5FDD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -686,13 +750,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
+                  <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E57E39-D4A4-4C43-B7E3-D72C29EC3C9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB073D9-6566-4B98-B1F8-D9A279058DEF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -753,13 +817,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1064"/>
+                  <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2D3FE2-6364-484A-8348-5CE21802810D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A410AB-F668-46B1-8EFA-A719E46147DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -820,13 +884,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1065"/>
+                  <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0988BFA4-AE38-4376-8652-0BD3F198430E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B5BAD4-A4D5-481D-BBE4-10C7B62A41B5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -887,13 +951,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
+                  <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31CCDCD-B174-4177-988D-1DA2E5174887}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FEE8DC-5017-41A9-A9DC-EDCCD44E68E7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -954,13 +1018,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1067"/>
+                  <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44A07B9-6B7C-4E88-916D-9D40E0E1B697}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF51DA5-29CA-4FB2-A722-AE1E024AB7A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1021,13 +1085,147 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1068"/>
+                  <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3587BF23-0885-4C21-A4C9-CCDB4166AC3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBC1AF1-699B-41F7-BCC1-767D939005D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C617C0-C5D1-4B5B-8545-D66FC5421878}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEF2085-506C-4AC3-B1D7-4990D834A7BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1088,13 +1286,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1069"/>
+                  <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303825D3-13DB-4449-9A56-23FDC1AB4F49}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC62BDB-6854-400D-A7D5-C9623ECD4AEE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1142,160 +1340,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1070"/>
+                  <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C48878-5F82-4A7C-9BC6-EFB79ECD4CDB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1071"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD54A9D-9F10-4E9B-9BE2-4EAF31F08455}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1072"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFBB060-30E4-4318-91A7-FF66E60311A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BCB36E-FCFF-4F10-ADC8-D7649D910822}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1356,13 +1420,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1073"/>
+                  <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0CF1BE-AFF9-42C7-841B-E08C3F7A5873}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8F8517-7B6A-4E5F-BC9E-667F997CF3AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1423,13 +1487,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1074"/>
+                  <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97F3099-260D-406E-9085-0CBF10AC3FF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3157758-9379-44B2-80ED-0E9173768F4F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,13 +1554,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1075"/>
+                  <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D5B711-CC23-4B96-B8F3-9715714C27C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F301E154-EFC8-42A4-AED9-238E3729327B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1557,13 +1621,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1076"/>
+                  <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10BD93A-0B74-44BA-A2E6-F393BAD19D32}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4580C385-E5AD-4389-A8D9-671960B5E132}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1624,13 +1688,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1077"/>
+                  <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F08DAE-BC3C-4B4F-A426-DBFDA160DFA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD6D5D8-C89A-428F-BA4A-CA1990093F60}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1691,13 +1755,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1078"/>
+                  <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5027D1FF-45FA-48D9-9E0B-76721ACAE481}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD3573B-A16C-4C94-8806-56F40E060510}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1758,13 +1822,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1079"/>
+                  <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB77212-8765-404E-A2A9-1B1F7F075797}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59387AA-2F28-4FDC-B015-C1FC449E2954}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1825,13 +1889,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1080"/>
+                  <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C54F5A-32AC-43B3-A9FE-61A641B2E958}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E500611-D3A4-4994-82E7-E9E753B5D31D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1892,13 +1956,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1081"/>
+                  <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1507924-C2BA-46F1-A15B-245903DF177F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287495EC-87D9-4056-B5E0-9E4DDE261A09}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1959,13 +2023,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1082"/>
+                  <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DCFAAD-62E4-42F6-8A26-B1BF13ADE422}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0C9877-E9CE-4B24-AB43-416CED861D67}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2026,13 +2090,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1083"/>
+                  <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2301DD-D375-43CE-AF0B-450AD568CC8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B395CC-DE1A-4141-9E4D-B2A2524C2BD3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2080,26 +2144,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1084"/>
+                  <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6771C0-5BC4-4EAA-974F-260819470632}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3C5D7C-3E6F-4C8D-8DF4-A8A492248CA2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2160,13 +2224,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1085"/>
+                  <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AE658B-5284-4177-8005-BA978772AF94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE510EF-067A-4945-89AB-E0E09C1D302E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2212,28 +2276,23 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="390525" cy="314325"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1086"/>
+                  <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BCC0F5-1F95-49DF-BDBD-C1F7F262181F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144E5716-081A-46BE-BA05-B9A6B55BF959}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2273,34 +2332,29 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
-          <xdr:col>14</xdr:col>
+          <xdr:col>13</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="390525" cy="314325"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1087"/>
+                  <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE47758-351E-4D63-9C8A-F5399FA086F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA9F752-9D21-43FA-A4D5-3CECC10A44A5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2340,138 +2394,10 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1088"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E61829F-5D19-4AA0-AC5E-F6946E6BD06E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549F0DFC-3EE7-41D1-AF3F-D4036405808A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="581025"/>
-          <a:ext cx="619125" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2738,62 +2664,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O6"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3">
-        <v>45306</v>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45308</v>
       </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2806,50 +2733,50 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2862,19 +2789,6 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2885,7 +2799,29 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId3" name="Check Box 34">
+            <control shapeId="1025" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2907,7 +2843,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId4" name="Check Box 35">
+            <control shapeId="1027" r:id="rId5" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2929,7 +2865,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId5" name="Check Box 36">
+            <control shapeId="1028" r:id="rId6" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2951,7 +2887,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId6" name="Check Box 37">
+            <control shapeId="1029" r:id="rId7" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2973,7 +2909,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId7" name="Check Box 38">
+            <control shapeId="1030" r:id="rId8" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2995,7 +2931,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId8" name="Check Box 39">
+            <control shapeId="1031" r:id="rId9" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3017,7 +2953,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId9" name="Check Box 40">
+            <control shapeId="1032" r:id="rId10" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3039,7 +2975,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId10" name="Check Box 41">
+            <control shapeId="1033" r:id="rId11" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3061,7 +2997,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId11" name="Check Box 42">
+            <control shapeId="1034" r:id="rId12" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3083,7 +3019,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId12" name="Check Box 43">
+            <control shapeId="1035" r:id="rId13" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3105,7 +3041,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId13" name="Check Box 44">
+            <control shapeId="1036" r:id="rId14" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3127,7 +3063,51 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId14" name="Check Box 45">
+            <control shapeId="1037" r:id="rId15" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId16" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId17" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3149,20 +3129,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId15" name="Check Box 46">
+            <control shapeId="1040" r:id="rId18" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>12</xdr:col>
+                    <xdr:col>1</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>12</xdr:col>
+                    <xdr:col>1</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3171,51 +3151,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId16" name="Check Box 47">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId17" name="Check Box 48">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>14</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>14</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId18" name="Check Box 49">
+            <control shapeId="1041" r:id="rId19" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3228,7 +3164,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3237,7 +3173,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId19" name="Check Box 50">
+            <control shapeId="1042" r:id="rId20" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3250,7 +3186,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3259,7 +3195,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId20" name="Check Box 51">
+            <control shapeId="1043" r:id="rId21" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3272,7 +3208,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3281,7 +3217,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId21" name="Check Box 52">
+            <control shapeId="1044" r:id="rId22" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3294,7 +3230,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3303,7 +3239,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId22" name="Check Box 53">
+            <control shapeId="1045" r:id="rId23" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3316,7 +3252,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3325,7 +3261,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId23" name="Check Box 54">
+            <control shapeId="1046" r:id="rId24" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3338,7 +3274,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3347,7 +3283,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId24" name="Check Box 55">
+            <control shapeId="1047" r:id="rId25" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3360,7 +3296,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3369,7 +3305,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId25" name="Check Box 56">
+            <control shapeId="1048" r:id="rId26" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3382,7 +3318,7 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3391,7 +3327,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId26" name="Check Box 57">
+            <control shapeId="1049" r:id="rId27" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3404,7 +3340,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3413,7 +3349,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId27" name="Check Box 58">
+            <control shapeId="1050" r:id="rId28" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3426,7 +3362,7 @@
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3435,7 +3371,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId28" name="Check Box 59">
+            <control shapeId="1051" r:id="rId29" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3448,7 +3384,7 @@
                     <xdr:col>12</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3457,7 +3393,51 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId29" name="Check Box 60">
+            <control shapeId="1052" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId32" name="Check Box 30">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3470,7 +3450,7 @@
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3479,29 +3459,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId30" name="Check Box 61">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId31" name="Check Box 62">
+            <control shapeId="1055" r:id="rId33" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3514,51 +3472,7 @@
                     <xdr:col>13</xdr:col>
                     <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1087" r:id="rId32" name="Check Box 63">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>14</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>14</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1088" r:id="rId33" name="Check Box 64">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
